--- a/exports/excel/afraint_new_york_data.xlsx
+++ b/exports/excel/afraint_new_york_data.xlsx
@@ -10,13 +10,14 @@
     <sheet name="Calendar-Heatmap" sheetId="1" r:id="rId1"/>
     <sheet name="SUMMARY" sheetId="2" r:id="rId2"/>
     <sheet name="activity_hr" sheetId="3" r:id="rId3"/>
+    <sheet name="activity_dayofweek" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="53">
   <si>
     <t>2013-01-30</t>
   </si>
@@ -45,7 +46,34 @@
     <t>weeks out:</t>
   </si>
   <si>
-    <t>Places Added Per Day</t>
+    <t>Total Places Added Per Day</t>
+  </si>
+  <si>
+    <t>Total People Adding Places</t>
+  </si>
+  <si>
+    <t>New Visitors Adding Places</t>
+  </si>
+  <si>
+    <t>Returning Visitors Adding Places</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratio of (Unique People/Total Places).             Darker = more diversity in the activity. lighter = more single-person activity </t>
+  </si>
+  <si>
+    <t>Total Interactions per day- comments &amp; witness</t>
+  </si>
+  <si>
+    <t>Total People Adding comments &amp; witness</t>
+  </si>
+  <si>
+    <t>New Visitors adding comments &amp; witness</t>
+  </si>
+  <si>
+    <t>Returning Visitors adding comments &amp; witness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratio of (Unique Interactors/Total Interactions).             Darker = more diversity in the activity. lighter = more single-person activity </t>
   </si>
   <si>
     <t>Total comments per Day</t>
@@ -54,7 +82,100 @@
     <t>Total witness per Day</t>
   </si>
   <si>
-    <t>Unique People Interacting</t>
+    <t>hr</t>
+  </si>
+  <si>
+    <t>places</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>supports</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>Tues</t>
+  </si>
+  <si>
+    <t>Adding Places</t>
+  </si>
+  <si>
+    <t>support</t>
   </si>
 </sst>
 </file>
@@ -146,6 +267,1247 @@
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr baseline="0">
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0">
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
+              <a:t>Map Activity by Hour of Day</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>places added</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>activity_hr!A2:A25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>00</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>07</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>activity_hr!B2:B25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>comments</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="008000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>activity_hr!A2:A25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>00</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>07</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>activity_hr!C2:C25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>supports</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>activity_hr!A2:A25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>00</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>07</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>activity_hr!D2:D25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>other</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF6600"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>activity_hr!A2:A25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>00</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>07</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>activity_hr!E2:E25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="50010001"/>
+        <c:axId val="50010002"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="50010001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50010002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50010002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50010001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr baseline="0">
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0">
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
+              <a:t>Map Activity by Day of Week</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>activity_dayofweek!A2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Adding Places</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>activity_dayofweek!B1:H1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Sun</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mon</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Tues</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Wed</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thu</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Fri</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sat</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>activity_dayofweek!B2:H2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>activity_dayofweek!A3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>support</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>activity_dayofweek!B1:H1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Sun</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mon</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Tues</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Wed</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thu</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Fri</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sat</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>activity_dayofweek!B3:H3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>activity_dayofweek!A4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>other</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>activity_dayofweek!B1:H1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Sun</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mon</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Tues</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Wed</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thu</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Fri</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sat</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>activity_dayofweek!B4:H4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>activity_dayofweek!A5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>comments</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>activity_dayofweek!B1:H1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Sun</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mon</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Tues</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Wed</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thu</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Fri</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sat</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>activity_dayofweek!B5:H5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50020001"/>
+        <c:axId val="50020002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50020001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50020002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50020002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50020001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -433,7 +1795,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BY40"/>
+  <dimension ref="A1:BY120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
@@ -441,6 +1803,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="40.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:77">
       <c r="A1" s="1" t="s">
@@ -984,21 +2349,60 @@
       <c r="A13" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="B13" s="4">
+        <v>1</v>
+      </c>
+      <c r="J13" s="4">
+        <v>2</v>
+      </c>
+      <c r="K13" s="4">
+        <v>1</v>
+      </c>
+      <c r="O13" s="4">
+        <v>1</v>
+      </c>
       <c r="AA13" s="4">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="AF13" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:77" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="B14" s="4">
+        <v>1</v>
+      </c>
+      <c r="G14" s="4">
+        <v>1</v>
+      </c>
+      <c r="H14" s="4">
+        <v>1</v>
+      </c>
       <c r="I14" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J14" s="4">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="K14" s="4">
+        <v>1</v>
+      </c>
+      <c r="L14" s="4">
+        <v>1</v>
       </c>
       <c r="AA14" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC14" s="4">
+        <v>1</v>
+      </c>
+      <c r="AZ14" s="4">
+        <v>1</v>
+      </c>
+      <c r="BJ14" s="4">
         <v>1</v>
       </c>
     </row>
@@ -1010,15 +2414,27 @@
         <v>1</v>
       </c>
       <c r="F15" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I15" s="4">
-        <v>2</v>
-      </c>
-      <c r="P15" s="4">
-        <v>1</v>
-      </c>
-      <c r="AC15" s="4">
+        <v>1</v>
+      </c>
+      <c r="J15" s="4">
+        <v>2</v>
+      </c>
+      <c r="K15" s="4">
+        <v>1</v>
+      </c>
+      <c r="O15" s="4">
+        <v>1</v>
+      </c>
+      <c r="R15" s="4">
+        <v>1</v>
+      </c>
+      <c r="AP15" s="4">
+        <v>1</v>
+      </c>
+      <c r="BY15" s="4">
         <v>1</v>
       </c>
     </row>
@@ -1030,16 +2446,25 @@
         <v>1</v>
       </c>
       <c r="C16" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" s="4">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="F16" s="4">
+        <v>1</v>
+      </c>
+      <c r="H16" s="4">
+        <v>1</v>
+      </c>
+      <c r="I16" s="4">
+        <v>1</v>
       </c>
       <c r="J16" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K16" s="4">
         <v>1</v>
@@ -1047,53 +2472,170 @@
       <c r="L16" s="4">
         <v>1</v>
       </c>
+      <c r="M16" s="4">
+        <v>1</v>
+      </c>
+      <c r="N16" s="4">
+        <v>1</v>
+      </c>
+      <c r="O16" s="4">
+        <v>1</v>
+      </c>
       <c r="R16" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U16" s="4">
         <v>1</v>
       </c>
+      <c r="V16" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC16" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI16" s="4">
+        <v>1</v>
+      </c>
+      <c r="AP16" s="4">
+        <v>1</v>
+      </c>
       <c r="AR16" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:59" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="BJ16" s="4">
+        <v>1</v>
+      </c>
+      <c r="BQ16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:77" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A17" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="D17" s="4">
+        <v>1</v>
+      </c>
       <c r="J17" s="4">
-        <v>9</v>
+        <v>3</v>
+      </c>
+      <c r="K17" s="4">
+        <v>1</v>
+      </c>
+      <c r="L17" s="4">
+        <v>1</v>
       </c>
       <c r="M17" s="4">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="O17" s="4">
+        <v>1</v>
+      </c>
+      <c r="S17" s="4">
+        <v>1</v>
+      </c>
+      <c r="V17" s="4">
+        <v>1</v>
       </c>
       <c r="AF17" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:59" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="AI17" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK17" s="4">
+        <v>2</v>
+      </c>
+      <c r="AN17" s="4">
+        <v>1</v>
+      </c>
+      <c r="AR17" s="4">
+        <v>1</v>
+      </c>
+      <c r="BF17" s="4">
+        <v>2</v>
+      </c>
+      <c r="BR17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:77" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A18" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="B18" s="4">
+        <v>1</v>
+      </c>
       <c r="J18" s="4">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="K18" s="4">
+        <v>1</v>
+      </c>
+      <c r="L18" s="4">
+        <v>1</v>
       </c>
       <c r="M18" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:59" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="O18" s="4">
+        <v>1</v>
+      </c>
+      <c r="P18" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA18" s="4">
+        <v>1</v>
+      </c>
+      <c r="AQ18" s="4">
+        <v>1</v>
+      </c>
+      <c r="AR18" s="4">
+        <v>2</v>
+      </c>
+      <c r="AY18" s="4">
+        <v>1</v>
+      </c>
+      <c r="BB18" s="4">
+        <v>1</v>
+      </c>
+      <c r="BK18" s="4">
+        <v>1</v>
+      </c>
+      <c r="BX18" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:77" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A19" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="4">
-        <v>1</v>
-      </c>
       <c r="J19" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:59">
+      <c r="M19" s="4">
+        <v>1</v>
+      </c>
+      <c r="N19" s="4">
+        <v>1</v>
+      </c>
+      <c r="V19" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD19" s="4">
+        <v>1</v>
+      </c>
+      <c r="AQ19" s="4">
+        <v>1</v>
+      </c>
+      <c r="BG19" s="4">
+        <v>1</v>
+      </c>
+      <c r="BQ19" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:77">
       <c r="A20" s="3" t="s">
         <v>8</v>
       </c>
@@ -1226,51 +2768,210 @@
       <c r="AR20" s="3">
         <v>42</v>
       </c>
-    </row>
-    <row r="22" spans="1:59">
+      <c r="AS20" s="3">
+        <v>43</v>
+      </c>
+      <c r="AT20" s="3">
+        <v>44</v>
+      </c>
+      <c r="AU20" s="3">
+        <v>45</v>
+      </c>
+      <c r="AV20" s="3">
+        <v>46</v>
+      </c>
+      <c r="AW20" s="3">
+        <v>47</v>
+      </c>
+      <c r="AX20" s="3">
+        <v>48</v>
+      </c>
+      <c r="AY20" s="3">
+        <v>49</v>
+      </c>
+      <c r="AZ20" s="3">
+        <v>50</v>
+      </c>
+      <c r="BA20" s="3">
+        <v>51</v>
+      </c>
+      <c r="BB20" s="3">
+        <v>52</v>
+      </c>
+      <c r="BC20" s="3">
+        <v>53</v>
+      </c>
+      <c r="BD20" s="3">
+        <v>54</v>
+      </c>
+      <c r="BE20" s="3">
+        <v>55</v>
+      </c>
+      <c r="BF20" s="3">
+        <v>56</v>
+      </c>
+      <c r="BG20" s="3">
+        <v>57</v>
+      </c>
+      <c r="BH20" s="3">
+        <v>58</v>
+      </c>
+      <c r="BI20" s="3">
+        <v>59</v>
+      </c>
+      <c r="BJ20" s="3">
+        <v>60</v>
+      </c>
+      <c r="BK20" s="3">
+        <v>61</v>
+      </c>
+      <c r="BL20" s="3">
+        <v>62</v>
+      </c>
+      <c r="BM20" s="3">
+        <v>63</v>
+      </c>
+      <c r="BN20" s="3">
+        <v>64</v>
+      </c>
+      <c r="BO20" s="3">
+        <v>65</v>
+      </c>
+      <c r="BP20" s="3">
+        <v>66</v>
+      </c>
+      <c r="BQ20" s="3">
+        <v>67</v>
+      </c>
+      <c r="BR20" s="3">
+        <v>68</v>
+      </c>
+      <c r="BS20" s="3">
+        <v>69</v>
+      </c>
+      <c r="BT20" s="3">
+        <v>70</v>
+      </c>
+      <c r="BU20" s="3">
+        <v>71</v>
+      </c>
+      <c r="BV20" s="3">
+        <v>72</v>
+      </c>
+      <c r="BW20" s="3">
+        <v>73</v>
+      </c>
+      <c r="BX20" s="3">
+        <v>74</v>
+      </c>
+      <c r="BY20" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:77">
       <c r="A22" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:59" s="2" customFormat="1" ht="30" customHeight="1">
+    <row r="23" spans="1:77" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A23" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:59" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="J23" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:77" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A24" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:59" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="J24" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:77" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A25" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:59" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="J25" s="4">
+        <v>1</v>
+      </c>
+      <c r="AP25" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:77" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="BG26" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:59" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="B26" s="4">
+        <v>1</v>
+      </c>
+      <c r="AP26" s="4">
+        <v>1</v>
+      </c>
+      <c r="BJ26" s="4">
+        <v>1</v>
+      </c>
+      <c r="BQ26" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:77" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A27" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:59" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="J27" s="4">
+        <v>2</v>
+      </c>
+      <c r="AK27" s="4">
+        <v>2</v>
+      </c>
+      <c r="AN27" s="4">
+        <v>1</v>
+      </c>
+      <c r="BF27" s="4">
+        <v>1</v>
+      </c>
+      <c r="BR27" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:77" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A28" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:59" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="J28" s="4">
+        <v>3</v>
+      </c>
+      <c r="AQ28" s="4">
+        <v>1</v>
+      </c>
+      <c r="AR28" s="4">
+        <v>1</v>
+      </c>
+      <c r="BB28" s="4">
+        <v>1</v>
+      </c>
+      <c r="BK28" s="4">
+        <v>1</v>
+      </c>
+      <c r="BX28" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:77" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A29" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="30" spans="1:59">
+      <c r="AQ29" s="4">
+        <v>1</v>
+      </c>
+      <c r="BG29" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:77">
       <c r="A30" s="3" t="s">
         <v>8</v>
       </c>
@@ -1448,35 +3149,125 @@
       <c r="BG30" s="3">
         <v>57</v>
       </c>
-    </row>
-    <row r="32" spans="1:59">
+      <c r="BH30" s="3">
+        <v>58</v>
+      </c>
+      <c r="BI30" s="3">
+        <v>59</v>
+      </c>
+      <c r="BJ30" s="3">
+        <v>60</v>
+      </c>
+      <c r="BK30" s="3">
+        <v>61</v>
+      </c>
+      <c r="BL30" s="3">
+        <v>62</v>
+      </c>
+      <c r="BM30" s="3">
+        <v>63</v>
+      </c>
+      <c r="BN30" s="3">
+        <v>64</v>
+      </c>
+      <c r="BO30" s="3">
+        <v>65</v>
+      </c>
+      <c r="BP30" s="3">
+        <v>66</v>
+      </c>
+      <c r="BQ30" s="3">
+        <v>67</v>
+      </c>
+      <c r="BR30" s="3">
+        <v>68</v>
+      </c>
+      <c r="BS30" s="3">
+        <v>69</v>
+      </c>
+      <c r="BT30" s="3">
+        <v>70</v>
+      </c>
+      <c r="BU30" s="3">
+        <v>71</v>
+      </c>
+      <c r="BV30" s="3">
+        <v>72</v>
+      </c>
+      <c r="BW30" s="3">
+        <v>73</v>
+      </c>
+      <c r="BX30" s="3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:77">
       <c r="A32" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:59" s="2" customFormat="1" ht="30" customHeight="1">
+    <row r="33" spans="1:77" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A33" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="B33" s="4">
+        <v>1</v>
+      </c>
+      <c r="J33" s="4">
+        <v>1</v>
+      </c>
+      <c r="K33" s="4">
+        <v>1</v>
+      </c>
+      <c r="O33" s="4">
+        <v>1</v>
+      </c>
       <c r="AA33" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:59" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="AF33" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:77" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A34" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="B34" s="4">
+        <v>1</v>
+      </c>
+      <c r="G34" s="4">
+        <v>1</v>
+      </c>
+      <c r="H34" s="4">
+        <v>1</v>
+      </c>
       <c r="I34" s="4">
         <v>1</v>
       </c>
       <c r="J34" s="4">
         <v>1</v>
       </c>
+      <c r="K34" s="4">
+        <v>1</v>
+      </c>
+      <c r="L34" s="4">
+        <v>1</v>
+      </c>
       <c r="AA34" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:59" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="AC34" s="4">
+        <v>1</v>
+      </c>
+      <c r="AZ34" s="4">
+        <v>1</v>
+      </c>
+      <c r="BJ34" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:77" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1489,20 +3280,26 @@
       <c r="I35" s="4">
         <v>1</v>
       </c>
-      <c r="P35" s="4">
-        <v>1</v>
-      </c>
-      <c r="AC35" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:59" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="J35" s="4">
+        <v>1</v>
+      </c>
+      <c r="K35" s="4">
+        <v>1</v>
+      </c>
+      <c r="O35" s="4">
+        <v>1</v>
+      </c>
+      <c r="R35" s="4">
+        <v>1</v>
+      </c>
+      <c r="BY35" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:77" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A36" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="4">
-        <v>1</v>
-      </c>
       <c r="C36" s="4">
         <v>1</v>
       </c>
@@ -1512,6 +3309,15 @@
       <c r="E36" s="4">
         <v>1</v>
       </c>
+      <c r="F36" s="4">
+        <v>1</v>
+      </c>
+      <c r="H36" s="4">
+        <v>1</v>
+      </c>
+      <c r="I36" s="4">
+        <v>1</v>
+      </c>
       <c r="J36" s="4">
         <v>1</v>
       </c>
@@ -1521,56 +3327,134 @@
       <c r="L36" s="4">
         <v>1</v>
       </c>
+      <c r="M36" s="4">
+        <v>1</v>
+      </c>
+      <c r="N36" s="4">
+        <v>1</v>
+      </c>
+      <c r="O36" s="4">
+        <v>1</v>
+      </c>
       <c r="R36" s="4">
         <v>1</v>
       </c>
       <c r="U36" s="4">
         <v>1</v>
       </c>
+      <c r="V36" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC36" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI36" s="4">
+        <v>1</v>
+      </c>
       <c r="AR36" s="4">
         <v>1</v>
       </c>
-      <c r="BG36" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:59" s="2" customFormat="1" ht="30" customHeight="1">
+    </row>
+    <row r="37" spans="1:77" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A37" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="D37" s="4">
+        <v>1</v>
+      </c>
       <c r="J37" s="4">
         <v>1</v>
       </c>
+      <c r="K37" s="4">
+        <v>1</v>
+      </c>
+      <c r="L37" s="4">
+        <v>1</v>
+      </c>
       <c r="M37" s="4">
         <v>1</v>
       </c>
+      <c r="O37" s="4">
+        <v>1</v>
+      </c>
+      <c r="S37" s="4">
+        <v>1</v>
+      </c>
+      <c r="V37" s="4">
+        <v>1</v>
+      </c>
       <c r="AF37" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:59" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="AI37" s="4">
+        <v>1</v>
+      </c>
+      <c r="AR37" s="4">
+        <v>1</v>
+      </c>
+      <c r="BF37" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:77" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A38" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="B38" s="4">
+        <v>1</v>
+      </c>
       <c r="J38" s="4">
         <v>1</v>
       </c>
+      <c r="K38" s="4">
+        <v>1</v>
+      </c>
+      <c r="L38" s="4">
+        <v>1</v>
+      </c>
       <c r="M38" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:59" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="O38" s="4">
+        <v>1</v>
+      </c>
+      <c r="P38" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA38" s="4">
+        <v>1</v>
+      </c>
+      <c r="AR38" s="4">
+        <v>1</v>
+      </c>
+      <c r="AY38" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:77" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A39" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B39" s="4">
-        <v>1</v>
-      </c>
       <c r="J39" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:59">
+      <c r="M39" s="4">
+        <v>1</v>
+      </c>
+      <c r="N39" s="4">
+        <v>1</v>
+      </c>
+      <c r="V39" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD39" s="4">
+        <v>1</v>
+      </c>
+      <c r="BQ39" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:77">
       <c r="A40" s="3" t="s">
         <v>8</v>
       </c>
@@ -1748,10 +3632,2197 @@
       <c r="BG40" s="3">
         <v>57</v>
       </c>
+      <c r="BH40" s="3">
+        <v>58</v>
+      </c>
+      <c r="BI40" s="3">
+        <v>59</v>
+      </c>
+      <c r="BJ40" s="3">
+        <v>60</v>
+      </c>
+      <c r="BK40" s="3">
+        <v>61</v>
+      </c>
+      <c r="BL40" s="3">
+        <v>62</v>
+      </c>
+      <c r="BM40" s="3">
+        <v>63</v>
+      </c>
+      <c r="BN40" s="3">
+        <v>64</v>
+      </c>
+      <c r="BO40" s="3">
+        <v>65</v>
+      </c>
+      <c r="BP40" s="3">
+        <v>66</v>
+      </c>
+      <c r="BQ40" s="3">
+        <v>67</v>
+      </c>
+      <c r="BR40" s="3">
+        <v>68</v>
+      </c>
+      <c r="BS40" s="3">
+        <v>69</v>
+      </c>
+      <c r="BT40" s="3">
+        <v>70</v>
+      </c>
+      <c r="BU40" s="3">
+        <v>71</v>
+      </c>
+      <c r="BV40" s="3">
+        <v>72</v>
+      </c>
+      <c r="BW40" s="3">
+        <v>73</v>
+      </c>
+      <c r="BX40" s="3">
+        <v>74</v>
+      </c>
+      <c r="BY40" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:77">
+      <c r="A42" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:77" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A43" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J43" s="4">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="AA43" s="4">
+        <v>0.333333333333333</v>
+      </c>
+    </row>
+    <row r="44" spans="1:77" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A44" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G44" s="4">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="H44" s="4">
+        <v>0.0625</v>
+      </c>
+      <c r="I44" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J44" s="4">
+        <v>0.0909090909090909</v>
+      </c>
+      <c r="K44" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="AA44" s="4">
+        <v>0.333333333333333</v>
+      </c>
+    </row>
+    <row r="45" spans="1:77" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45" s="4">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="F45" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="I45" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J45" s="4">
+        <v>0.285714285714286</v>
+      </c>
+      <c r="AP45" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:77" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D46" s="4">
+        <v>0.125</v>
+      </c>
+      <c r="E46" s="4">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="F46" s="4">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="H46" s="4">
+        <v>0.0909090909090909</v>
+      </c>
+      <c r="I46" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="J46" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="K46" s="4">
+        <v>0.0769230769230769</v>
+      </c>
+      <c r="L46" s="4">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="N46" s="4">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="AC46" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="AR46" s="4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:77" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J47" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="K47" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="M47" s="4">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="O47" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="AK47" s="4">
+        <v>1</v>
+      </c>
+      <c r="BF47" s="4">
+        <v>0.333333333333333</v>
+      </c>
+    </row>
+    <row r="48" spans="1:77" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A48" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J48" s="4">
+        <v>0.0727272727272727</v>
+      </c>
+      <c r="K48" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="L48" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="M48" s="4">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="O48" s="4">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="AR48" s="4">
+        <v>1</v>
+      </c>
+      <c r="BX48" s="4">
+        <v>0.333333333333333</v>
+      </c>
+    </row>
+    <row r="49" spans="1:76" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A49" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J49" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="BG49" s="4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:76">
+      <c r="A50" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" s="3">
+        <v>0</v>
+      </c>
+      <c r="C50" s="3">
+        <v>1</v>
+      </c>
+      <c r="D50" s="3">
+        <v>2</v>
+      </c>
+      <c r="E50" s="3">
+        <v>3</v>
+      </c>
+      <c r="F50" s="3">
+        <v>4</v>
+      </c>
+      <c r="G50" s="3">
+        <v>5</v>
+      </c>
+      <c r="H50" s="3">
+        <v>6</v>
+      </c>
+      <c r="I50" s="3">
+        <v>7</v>
+      </c>
+      <c r="J50" s="3">
+        <v>8</v>
+      </c>
+      <c r="K50" s="3">
+        <v>9</v>
+      </c>
+      <c r="L50" s="3">
+        <v>10</v>
+      </c>
+      <c r="M50" s="3">
+        <v>11</v>
+      </c>
+      <c r="N50" s="3">
+        <v>12</v>
+      </c>
+      <c r="O50" s="3">
+        <v>13</v>
+      </c>
+      <c r="P50" s="3">
+        <v>14</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>15</v>
+      </c>
+      <c r="R50" s="3">
+        <v>16</v>
+      </c>
+      <c r="S50" s="3">
+        <v>17</v>
+      </c>
+      <c r="T50" s="3">
+        <v>18</v>
+      </c>
+      <c r="U50" s="3">
+        <v>19</v>
+      </c>
+      <c r="V50" s="3">
+        <v>20</v>
+      </c>
+      <c r="W50" s="3">
+        <v>21</v>
+      </c>
+      <c r="X50" s="3">
+        <v>22</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>23</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>24</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>25</v>
+      </c>
+      <c r="AB50" s="3">
+        <v>26</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>27</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>28</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>29</v>
+      </c>
+      <c r="AF50" s="3">
+        <v>30</v>
+      </c>
+      <c r="AG50" s="3">
+        <v>31</v>
+      </c>
+      <c r="AH50" s="3">
+        <v>32</v>
+      </c>
+      <c r="AI50" s="3">
+        <v>33</v>
+      </c>
+      <c r="AJ50" s="3">
+        <v>34</v>
+      </c>
+      <c r="AK50" s="3">
+        <v>35</v>
+      </c>
+      <c r="AL50" s="3">
+        <v>36</v>
+      </c>
+      <c r="AM50" s="3">
+        <v>37</v>
+      </c>
+      <c r="AN50" s="3">
+        <v>38</v>
+      </c>
+      <c r="AO50" s="3">
+        <v>39</v>
+      </c>
+      <c r="AP50" s="3">
+        <v>40</v>
+      </c>
+      <c r="AQ50" s="3">
+        <v>41</v>
+      </c>
+      <c r="AR50" s="3">
+        <v>42</v>
+      </c>
+      <c r="AS50" s="3">
+        <v>43</v>
+      </c>
+      <c r="AT50" s="3">
+        <v>44</v>
+      </c>
+      <c r="AU50" s="3">
+        <v>45</v>
+      </c>
+      <c r="AV50" s="3">
+        <v>46</v>
+      </c>
+      <c r="AW50" s="3">
+        <v>47</v>
+      </c>
+      <c r="AX50" s="3">
+        <v>48</v>
+      </c>
+      <c r="AY50" s="3">
+        <v>49</v>
+      </c>
+      <c r="AZ50" s="3">
+        <v>50</v>
+      </c>
+      <c r="BA50" s="3">
+        <v>51</v>
+      </c>
+      <c r="BB50" s="3">
+        <v>52</v>
+      </c>
+      <c r="BC50" s="3">
+        <v>53</v>
+      </c>
+      <c r="BD50" s="3">
+        <v>54</v>
+      </c>
+      <c r="BE50" s="3">
+        <v>55</v>
+      </c>
+      <c r="BF50" s="3">
+        <v>56</v>
+      </c>
+      <c r="BG50" s="3">
+        <v>57</v>
+      </c>
+      <c r="BH50" s="3">
+        <v>58</v>
+      </c>
+      <c r="BI50" s="3">
+        <v>59</v>
+      </c>
+      <c r="BJ50" s="3">
+        <v>60</v>
+      </c>
+      <c r="BK50" s="3">
+        <v>61</v>
+      </c>
+      <c r="BL50" s="3">
+        <v>62</v>
+      </c>
+      <c r="BM50" s="3">
+        <v>63</v>
+      </c>
+      <c r="BN50" s="3">
+        <v>64</v>
+      </c>
+      <c r="BO50" s="3">
+        <v>65</v>
+      </c>
+      <c r="BP50" s="3">
+        <v>66</v>
+      </c>
+      <c r="BQ50" s="3">
+        <v>67</v>
+      </c>
+      <c r="BR50" s="3">
+        <v>68</v>
+      </c>
+      <c r="BS50" s="3">
+        <v>69</v>
+      </c>
+      <c r="BT50" s="3">
+        <v>70</v>
+      </c>
+      <c r="BU50" s="3">
+        <v>71</v>
+      </c>
+      <c r="BV50" s="3">
+        <v>72</v>
+      </c>
+      <c r="BW50" s="3">
+        <v>73</v>
+      </c>
+      <c r="BX50" s="3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="1:76">
+      <c r="A52" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:76" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A53" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA53" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:76" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A54" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I54" s="4">
+        <v>4</v>
+      </c>
+      <c r="J54" s="4">
+        <v>3</v>
+      </c>
+      <c r="AA54" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:76" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A55" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B55" s="4">
+        <v>1</v>
+      </c>
+      <c r="F55" s="4">
+        <v>3</v>
+      </c>
+      <c r="I55" s="4">
+        <v>2</v>
+      </c>
+      <c r="P55" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC55" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:76" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A56" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" s="4">
+        <v>1</v>
+      </c>
+      <c r="C56" s="4">
+        <v>2</v>
+      </c>
+      <c r="D56" s="4">
+        <v>2</v>
+      </c>
+      <c r="E56" s="4">
+        <v>3</v>
+      </c>
+      <c r="J56" s="4">
+        <v>2</v>
+      </c>
+      <c r="K56" s="4">
+        <v>1</v>
+      </c>
+      <c r="L56" s="4">
+        <v>1</v>
+      </c>
+      <c r="R56" s="4">
+        <v>2</v>
+      </c>
+      <c r="U56" s="4">
+        <v>1</v>
+      </c>
+      <c r="AR56" s="4">
+        <v>1</v>
+      </c>
+      <c r="BG56" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:76" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J57" s="4">
+        <v>9</v>
+      </c>
+      <c r="M57" s="4">
+        <v>2</v>
+      </c>
+      <c r="AF57" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:76" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A58" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J58" s="4">
+        <v>2</v>
+      </c>
+      <c r="M58" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:76" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A59" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" s="4">
+        <v>1</v>
+      </c>
+      <c r="J59" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:76">
+      <c r="A60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" s="3">
+        <v>0</v>
+      </c>
+      <c r="C60" s="3">
+        <v>1</v>
+      </c>
+      <c r="D60" s="3">
+        <v>2</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3</v>
+      </c>
+      <c r="F60" s="3">
+        <v>4</v>
+      </c>
+      <c r="G60" s="3">
+        <v>5</v>
+      </c>
+      <c r="H60" s="3">
+        <v>6</v>
+      </c>
+      <c r="I60" s="3">
+        <v>7</v>
+      </c>
+      <c r="J60" s="3">
+        <v>8</v>
+      </c>
+      <c r="K60" s="3">
+        <v>9</v>
+      </c>
+      <c r="L60" s="3">
+        <v>10</v>
+      </c>
+      <c r="M60" s="3">
+        <v>11</v>
+      </c>
+      <c r="N60" s="3">
+        <v>12</v>
+      </c>
+      <c r="O60" s="3">
+        <v>13</v>
+      </c>
+      <c r="P60" s="3">
+        <v>14</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>15</v>
+      </c>
+      <c r="R60" s="3">
+        <v>16</v>
+      </c>
+      <c r="S60" s="3">
+        <v>17</v>
+      </c>
+      <c r="T60" s="3">
+        <v>18</v>
+      </c>
+      <c r="U60" s="3">
+        <v>19</v>
+      </c>
+      <c r="V60" s="3">
+        <v>20</v>
+      </c>
+      <c r="W60" s="3">
+        <v>21</v>
+      </c>
+      <c r="X60" s="3">
+        <v>22</v>
+      </c>
+      <c r="Y60" s="3">
+        <v>23</v>
+      </c>
+      <c r="Z60" s="3">
+        <v>24</v>
+      </c>
+      <c r="AA60" s="3">
+        <v>25</v>
+      </c>
+      <c r="AB60" s="3">
+        <v>26</v>
+      </c>
+      <c r="AC60" s="3">
+        <v>27</v>
+      </c>
+      <c r="AD60" s="3">
+        <v>28</v>
+      </c>
+      <c r="AE60" s="3">
+        <v>29</v>
+      </c>
+      <c r="AF60" s="3">
+        <v>30</v>
+      </c>
+      <c r="AG60" s="3">
+        <v>31</v>
+      </c>
+      <c r="AH60" s="3">
+        <v>32</v>
+      </c>
+      <c r="AI60" s="3">
+        <v>33</v>
+      </c>
+      <c r="AJ60" s="3">
+        <v>34</v>
+      </c>
+      <c r="AK60" s="3">
+        <v>35</v>
+      </c>
+      <c r="AL60" s="3">
+        <v>36</v>
+      </c>
+      <c r="AM60" s="3">
+        <v>37</v>
+      </c>
+      <c r="AN60" s="3">
+        <v>38</v>
+      </c>
+      <c r="AO60" s="3">
+        <v>39</v>
+      </c>
+      <c r="AP60" s="3">
+        <v>40</v>
+      </c>
+      <c r="AQ60" s="3">
+        <v>41</v>
+      </c>
+      <c r="AR60" s="3">
+        <v>42</v>
+      </c>
+      <c r="AS60" s="3">
+        <v>43</v>
+      </c>
+      <c r="AT60" s="3">
+        <v>44</v>
+      </c>
+      <c r="AU60" s="3">
+        <v>45</v>
+      </c>
+      <c r="AV60" s="3">
+        <v>46</v>
+      </c>
+      <c r="AW60" s="3">
+        <v>47</v>
+      </c>
+      <c r="AX60" s="3">
+        <v>48</v>
+      </c>
+      <c r="AY60" s="3">
+        <v>49</v>
+      </c>
+      <c r="AZ60" s="3">
+        <v>50</v>
+      </c>
+      <c r="BA60" s="3">
+        <v>51</v>
+      </c>
+      <c r="BB60" s="3">
+        <v>52</v>
+      </c>
+      <c r="BC60" s="3">
+        <v>53</v>
+      </c>
+      <c r="BD60" s="3">
+        <v>54</v>
+      </c>
+      <c r="BE60" s="3">
+        <v>55</v>
+      </c>
+      <c r="BF60" s="3">
+        <v>56</v>
+      </c>
+      <c r="BG60" s="3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="62" spans="1:76">
+      <c r="A62" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:76" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A63" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA63" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:76" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A64" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I64" s="4">
+        <v>1</v>
+      </c>
+      <c r="J64" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA64" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:59" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A65" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B65" s="4">
+        <v>1</v>
+      </c>
+      <c r="F65" s="4">
+        <v>1</v>
+      </c>
+      <c r="I65" s="4">
+        <v>1</v>
+      </c>
+      <c r="P65" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC65" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:59" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" s="4">
+        <v>1</v>
+      </c>
+      <c r="C66" s="4">
+        <v>1</v>
+      </c>
+      <c r="D66" s="4">
+        <v>1</v>
+      </c>
+      <c r="E66" s="4">
+        <v>1</v>
+      </c>
+      <c r="J66" s="4">
+        <v>1</v>
+      </c>
+      <c r="K66" s="4">
+        <v>1</v>
+      </c>
+      <c r="L66" s="4">
+        <v>1</v>
+      </c>
+      <c r="R66" s="4">
+        <v>1</v>
+      </c>
+      <c r="U66" s="4">
+        <v>1</v>
+      </c>
+      <c r="AR66" s="4">
+        <v>1</v>
+      </c>
+      <c r="BG66" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:59" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A67" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J67" s="4">
+        <v>1</v>
+      </c>
+      <c r="M67" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF67" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:59" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A68" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J68" s="4">
+        <v>1</v>
+      </c>
+      <c r="M68" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:59" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A69" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" s="4">
+        <v>1</v>
+      </c>
+      <c r="J69" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:59">
+      <c r="A70" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70" s="3">
+        <v>0</v>
+      </c>
+      <c r="C70" s="3">
+        <v>1</v>
+      </c>
+      <c r="D70" s="3">
+        <v>2</v>
+      </c>
+      <c r="E70" s="3">
+        <v>3</v>
+      </c>
+      <c r="F70" s="3">
+        <v>4</v>
+      </c>
+      <c r="G70" s="3">
+        <v>5</v>
+      </c>
+      <c r="H70" s="3">
+        <v>6</v>
+      </c>
+      <c r="I70" s="3">
+        <v>7</v>
+      </c>
+      <c r="J70" s="3">
+        <v>8</v>
+      </c>
+      <c r="K70" s="3">
+        <v>9</v>
+      </c>
+      <c r="L70" s="3">
+        <v>10</v>
+      </c>
+      <c r="M70" s="3">
+        <v>11</v>
+      </c>
+      <c r="N70" s="3">
+        <v>12</v>
+      </c>
+      <c r="O70" s="3">
+        <v>13</v>
+      </c>
+      <c r="P70" s="3">
+        <v>14</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>15</v>
+      </c>
+      <c r="R70" s="3">
+        <v>16</v>
+      </c>
+      <c r="S70" s="3">
+        <v>17</v>
+      </c>
+      <c r="T70" s="3">
+        <v>18</v>
+      </c>
+      <c r="U70" s="3">
+        <v>19</v>
+      </c>
+      <c r="V70" s="3">
+        <v>20</v>
+      </c>
+      <c r="W70" s="3">
+        <v>21</v>
+      </c>
+      <c r="X70" s="3">
+        <v>22</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>23</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>24</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>25</v>
+      </c>
+      <c r="AB70" s="3">
+        <v>26</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>27</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>28</v>
+      </c>
+      <c r="AE70" s="3">
+        <v>29</v>
+      </c>
+      <c r="AF70" s="3">
+        <v>30</v>
+      </c>
+      <c r="AG70" s="3">
+        <v>31</v>
+      </c>
+      <c r="AH70" s="3">
+        <v>32</v>
+      </c>
+      <c r="AI70" s="3">
+        <v>33</v>
+      </c>
+      <c r="AJ70" s="3">
+        <v>34</v>
+      </c>
+      <c r="AK70" s="3">
+        <v>35</v>
+      </c>
+      <c r="AL70" s="3">
+        <v>36</v>
+      </c>
+      <c r="AM70" s="3">
+        <v>37</v>
+      </c>
+      <c r="AN70" s="3">
+        <v>38</v>
+      </c>
+      <c r="AO70" s="3">
+        <v>39</v>
+      </c>
+      <c r="AP70" s="3">
+        <v>40</v>
+      </c>
+      <c r="AQ70" s="3">
+        <v>41</v>
+      </c>
+      <c r="AR70" s="3">
+        <v>42</v>
+      </c>
+      <c r="AS70" s="3">
+        <v>43</v>
+      </c>
+      <c r="AT70" s="3">
+        <v>44</v>
+      </c>
+      <c r="AU70" s="3">
+        <v>45</v>
+      </c>
+      <c r="AV70" s="3">
+        <v>46</v>
+      </c>
+      <c r="AW70" s="3">
+        <v>47</v>
+      </c>
+      <c r="AX70" s="3">
+        <v>48</v>
+      </c>
+      <c r="AY70" s="3">
+        <v>49</v>
+      </c>
+      <c r="AZ70" s="3">
+        <v>50</v>
+      </c>
+      <c r="BA70" s="3">
+        <v>51</v>
+      </c>
+      <c r="BB70" s="3">
+        <v>52</v>
+      </c>
+      <c r="BC70" s="3">
+        <v>53</v>
+      </c>
+      <c r="BD70" s="3">
+        <v>54</v>
+      </c>
+      <c r="BE70" s="3">
+        <v>55</v>
+      </c>
+      <c r="BF70" s="3">
+        <v>56</v>
+      </c>
+      <c r="BG70" s="3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="72" spans="1:59">
+      <c r="A72" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="1:59" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A73" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:59" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A74" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:59" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A75" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:59" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="BG76" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:59" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A77" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:59" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A78" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:59" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A79" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:59">
+      <c r="A80" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" s="3">
+        <v>0</v>
+      </c>
+      <c r="C80" s="3">
+        <v>1</v>
+      </c>
+      <c r="D80" s="3">
+        <v>2</v>
+      </c>
+      <c r="E80" s="3">
+        <v>3</v>
+      </c>
+      <c r="F80" s="3">
+        <v>4</v>
+      </c>
+      <c r="G80" s="3">
+        <v>5</v>
+      </c>
+      <c r="H80" s="3">
+        <v>6</v>
+      </c>
+      <c r="I80" s="3">
+        <v>7</v>
+      </c>
+      <c r="J80" s="3">
+        <v>8</v>
+      </c>
+      <c r="K80" s="3">
+        <v>9</v>
+      </c>
+      <c r="L80" s="3">
+        <v>10</v>
+      </c>
+      <c r="M80" s="3">
+        <v>11</v>
+      </c>
+      <c r="N80" s="3">
+        <v>12</v>
+      </c>
+      <c r="O80" s="3">
+        <v>13</v>
+      </c>
+      <c r="P80" s="3">
+        <v>14</v>
+      </c>
+      <c r="Q80" s="3">
+        <v>15</v>
+      </c>
+      <c r="R80" s="3">
+        <v>16</v>
+      </c>
+      <c r="S80" s="3">
+        <v>17</v>
+      </c>
+      <c r="T80" s="3">
+        <v>18</v>
+      </c>
+      <c r="U80" s="3">
+        <v>19</v>
+      </c>
+      <c r="V80" s="3">
+        <v>20</v>
+      </c>
+      <c r="W80" s="3">
+        <v>21</v>
+      </c>
+      <c r="X80" s="3">
+        <v>22</v>
+      </c>
+      <c r="Y80" s="3">
+        <v>23</v>
+      </c>
+      <c r="Z80" s="3">
+        <v>24</v>
+      </c>
+      <c r="AA80" s="3">
+        <v>25</v>
+      </c>
+      <c r="AB80" s="3">
+        <v>26</v>
+      </c>
+      <c r="AC80" s="3">
+        <v>27</v>
+      </c>
+      <c r="AD80" s="3">
+        <v>28</v>
+      </c>
+      <c r="AE80" s="3">
+        <v>29</v>
+      </c>
+      <c r="AF80" s="3">
+        <v>30</v>
+      </c>
+      <c r="AG80" s="3">
+        <v>31</v>
+      </c>
+      <c r="AH80" s="3">
+        <v>32</v>
+      </c>
+      <c r="AI80" s="3">
+        <v>33</v>
+      </c>
+      <c r="AJ80" s="3">
+        <v>34</v>
+      </c>
+      <c r="AK80" s="3">
+        <v>35</v>
+      </c>
+      <c r="AL80" s="3">
+        <v>36</v>
+      </c>
+      <c r="AM80" s="3">
+        <v>37</v>
+      </c>
+      <c r="AN80" s="3">
+        <v>38</v>
+      </c>
+      <c r="AO80" s="3">
+        <v>39</v>
+      </c>
+      <c r="AP80" s="3">
+        <v>40</v>
+      </c>
+      <c r="AQ80" s="3">
+        <v>41</v>
+      </c>
+      <c r="AR80" s="3">
+        <v>42</v>
+      </c>
+      <c r="AS80" s="3">
+        <v>43</v>
+      </c>
+      <c r="AT80" s="3">
+        <v>44</v>
+      </c>
+      <c r="AU80" s="3">
+        <v>45</v>
+      </c>
+      <c r="AV80" s="3">
+        <v>46</v>
+      </c>
+      <c r="AW80" s="3">
+        <v>47</v>
+      </c>
+      <c r="AX80" s="3">
+        <v>48</v>
+      </c>
+      <c r="AY80" s="3">
+        <v>49</v>
+      </c>
+      <c r="AZ80" s="3">
+        <v>50</v>
+      </c>
+      <c r="BA80" s="3">
+        <v>51</v>
+      </c>
+      <c r="BB80" s="3">
+        <v>52</v>
+      </c>
+      <c r="BC80" s="3">
+        <v>53</v>
+      </c>
+      <c r="BD80" s="3">
+        <v>54</v>
+      </c>
+      <c r="BE80" s="3">
+        <v>55</v>
+      </c>
+      <c r="BF80" s="3">
+        <v>56</v>
+      </c>
+      <c r="BG80" s="3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="82" spans="1:52">
+      <c r="A82" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83" spans="1:52" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A83" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA83" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:52" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A84" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I84" s="4">
+        <v>4</v>
+      </c>
+      <c r="J84" s="4">
+        <v>3</v>
+      </c>
+      <c r="AA84" s="4">
+        <v>1</v>
+      </c>
+      <c r="AZ84" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:52" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A85" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B85" s="4">
+        <v>1</v>
+      </c>
+      <c r="F85" s="4">
+        <v>3</v>
+      </c>
+      <c r="I85" s="4">
+        <v>2</v>
+      </c>
+      <c r="P85" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC85" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:52" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A86" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B86" s="4">
+        <v>1</v>
+      </c>
+      <c r="C86" s="4">
+        <v>2</v>
+      </c>
+      <c r="D86" s="4">
+        <v>2</v>
+      </c>
+      <c r="E86" s="4">
+        <v>3</v>
+      </c>
+      <c r="J86" s="4">
+        <v>2</v>
+      </c>
+      <c r="K86" s="4">
+        <v>1</v>
+      </c>
+      <c r="L86" s="4">
+        <v>1</v>
+      </c>
+      <c r="R86" s="4">
+        <v>2</v>
+      </c>
+      <c r="U86" s="4">
+        <v>1</v>
+      </c>
+      <c r="AR86" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:52" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A87" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J87" s="4">
+        <v>9</v>
+      </c>
+      <c r="M87" s="4">
+        <v>2</v>
+      </c>
+      <c r="AF87" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:52" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A88" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J88" s="4">
+        <v>2</v>
+      </c>
+      <c r="M88" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:52" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A89" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B89" s="4">
+        <v>1</v>
+      </c>
+      <c r="J89" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:52">
+      <c r="A90" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90" s="3">
+        <v>0</v>
+      </c>
+      <c r="C90" s="3">
+        <v>1</v>
+      </c>
+      <c r="D90" s="3">
+        <v>2</v>
+      </c>
+      <c r="E90" s="3">
+        <v>3</v>
+      </c>
+      <c r="F90" s="3">
+        <v>4</v>
+      </c>
+      <c r="G90" s="3">
+        <v>5</v>
+      </c>
+      <c r="H90" s="3">
+        <v>6</v>
+      </c>
+      <c r="I90" s="3">
+        <v>7</v>
+      </c>
+      <c r="J90" s="3">
+        <v>8</v>
+      </c>
+      <c r="K90" s="3">
+        <v>9</v>
+      </c>
+      <c r="L90" s="3">
+        <v>10</v>
+      </c>
+      <c r="M90" s="3">
+        <v>11</v>
+      </c>
+      <c r="N90" s="3">
+        <v>12</v>
+      </c>
+      <c r="O90" s="3">
+        <v>13</v>
+      </c>
+      <c r="P90" s="3">
+        <v>14</v>
+      </c>
+      <c r="Q90" s="3">
+        <v>15</v>
+      </c>
+      <c r="R90" s="3">
+        <v>16</v>
+      </c>
+      <c r="S90" s="3">
+        <v>17</v>
+      </c>
+      <c r="T90" s="3">
+        <v>18</v>
+      </c>
+      <c r="U90" s="3">
+        <v>19</v>
+      </c>
+      <c r="V90" s="3">
+        <v>20</v>
+      </c>
+      <c r="W90" s="3">
+        <v>21</v>
+      </c>
+      <c r="X90" s="3">
+        <v>22</v>
+      </c>
+      <c r="Y90" s="3">
+        <v>23</v>
+      </c>
+      <c r="Z90" s="3">
+        <v>24</v>
+      </c>
+      <c r="AA90" s="3">
+        <v>25</v>
+      </c>
+      <c r="AB90" s="3">
+        <v>26</v>
+      </c>
+      <c r="AC90" s="3">
+        <v>27</v>
+      </c>
+      <c r="AD90" s="3">
+        <v>28</v>
+      </c>
+      <c r="AE90" s="3">
+        <v>29</v>
+      </c>
+      <c r="AF90" s="3">
+        <v>30</v>
+      </c>
+      <c r="AG90" s="3">
+        <v>31</v>
+      </c>
+      <c r="AH90" s="3">
+        <v>32</v>
+      </c>
+      <c r="AI90" s="3">
+        <v>33</v>
+      </c>
+      <c r="AJ90" s="3">
+        <v>34</v>
+      </c>
+      <c r="AK90" s="3">
+        <v>35</v>
+      </c>
+      <c r="AL90" s="3">
+        <v>36</v>
+      </c>
+      <c r="AM90" s="3">
+        <v>37</v>
+      </c>
+      <c r="AN90" s="3">
+        <v>38</v>
+      </c>
+      <c r="AO90" s="3">
+        <v>39</v>
+      </c>
+      <c r="AP90" s="3">
+        <v>40</v>
+      </c>
+      <c r="AQ90" s="3">
+        <v>41</v>
+      </c>
+      <c r="AR90" s="3">
+        <v>42</v>
+      </c>
+      <c r="AS90" s="3">
+        <v>43</v>
+      </c>
+      <c r="AT90" s="3">
+        <v>44</v>
+      </c>
+      <c r="AU90" s="3">
+        <v>45</v>
+      </c>
+      <c r="AV90" s="3">
+        <v>46</v>
+      </c>
+      <c r="AW90" s="3">
+        <v>47</v>
+      </c>
+      <c r="AX90" s="3">
+        <v>48</v>
+      </c>
+      <c r="AY90" s="3">
+        <v>49</v>
+      </c>
+      <c r="AZ90" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="92" spans="1:52">
+      <c r="A92" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93" spans="1:52" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A93" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA93" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:52" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A94" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I94" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="J94" s="4">
+        <v>0.333333333333333</v>
+      </c>
+    </row>
+    <row r="95" spans="1:52" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A95" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F95" s="4">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="I95" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:52" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A96" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C96" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D96" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E96" s="4">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="J96" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="R96" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:44" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A97" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J97" s="4">
+        <v>0.111111111111111</v>
+      </c>
+      <c r="M97" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:44" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A98" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J98" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:44" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A99" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:44">
+      <c r="A100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B100" s="3">
+        <v>0</v>
+      </c>
+      <c r="C100" s="3">
+        <v>1</v>
+      </c>
+      <c r="D100" s="3">
+        <v>2</v>
+      </c>
+      <c r="E100" s="3">
+        <v>3</v>
+      </c>
+      <c r="F100" s="3">
+        <v>4</v>
+      </c>
+      <c r="G100" s="3">
+        <v>5</v>
+      </c>
+      <c r="H100" s="3">
+        <v>6</v>
+      </c>
+      <c r="I100" s="3">
+        <v>7</v>
+      </c>
+      <c r="J100" s="3">
+        <v>8</v>
+      </c>
+      <c r="K100" s="3">
+        <v>9</v>
+      </c>
+      <c r="L100" s="3">
+        <v>10</v>
+      </c>
+      <c r="M100" s="3">
+        <v>11</v>
+      </c>
+      <c r="N100" s="3">
+        <v>12</v>
+      </c>
+      <c r="O100" s="3">
+        <v>13</v>
+      </c>
+      <c r="P100" s="3">
+        <v>14</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>15</v>
+      </c>
+      <c r="R100" s="3">
+        <v>16</v>
+      </c>
+      <c r="S100" s="3">
+        <v>17</v>
+      </c>
+      <c r="T100" s="3">
+        <v>18</v>
+      </c>
+      <c r="U100" s="3">
+        <v>19</v>
+      </c>
+      <c r="V100" s="3">
+        <v>20</v>
+      </c>
+      <c r="W100" s="3">
+        <v>21</v>
+      </c>
+      <c r="X100" s="3">
+        <v>22</v>
+      </c>
+      <c r="Y100" s="3">
+        <v>23</v>
+      </c>
+      <c r="Z100" s="3">
+        <v>24</v>
+      </c>
+      <c r="AA100" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="102" spans="1:44">
+      <c r="A102" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="103" spans="1:44" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A103" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA103" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:44" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A104" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I104" s="4">
+        <v>4</v>
+      </c>
+      <c r="J104" s="4">
+        <v>3</v>
+      </c>
+      <c r="AA104" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:44" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A105" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B105" s="4">
+        <v>1</v>
+      </c>
+      <c r="F105" s="4">
+        <v>3</v>
+      </c>
+      <c r="I105" s="4">
+        <v>2</v>
+      </c>
+      <c r="P105" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC105" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:44" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A106" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B106" s="4">
+        <v>1</v>
+      </c>
+      <c r="C106" s="4">
+        <v>2</v>
+      </c>
+      <c r="D106" s="4">
+        <v>2</v>
+      </c>
+      <c r="E106" s="4">
+        <v>3</v>
+      </c>
+      <c r="J106" s="4">
+        <v>2</v>
+      </c>
+      <c r="K106" s="4">
+        <v>1</v>
+      </c>
+      <c r="L106" s="4">
+        <v>1</v>
+      </c>
+      <c r="R106" s="4">
+        <v>2</v>
+      </c>
+      <c r="U106" s="4">
+        <v>1</v>
+      </c>
+      <c r="AR106" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:44" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A107" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J107" s="4">
+        <v>9</v>
+      </c>
+      <c r="M107" s="4">
+        <v>2</v>
+      </c>
+      <c r="AF107" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:44" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A108" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J108" s="4">
+        <v>2</v>
+      </c>
+      <c r="M108" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:44" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A109" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B109" s="4">
+        <v>1</v>
+      </c>
+      <c r="J109" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:44">
+      <c r="A110" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B110" s="3">
+        <v>0</v>
+      </c>
+      <c r="C110" s="3">
+        <v>1</v>
+      </c>
+      <c r="D110" s="3">
+        <v>2</v>
+      </c>
+      <c r="E110" s="3">
+        <v>3</v>
+      </c>
+      <c r="F110" s="3">
+        <v>4</v>
+      </c>
+      <c r="G110" s="3">
+        <v>5</v>
+      </c>
+      <c r="H110" s="3">
+        <v>6</v>
+      </c>
+      <c r="I110" s="3">
+        <v>7</v>
+      </c>
+      <c r="J110" s="3">
+        <v>8</v>
+      </c>
+      <c r="K110" s="3">
+        <v>9</v>
+      </c>
+      <c r="L110" s="3">
+        <v>10</v>
+      </c>
+      <c r="M110" s="3">
+        <v>11</v>
+      </c>
+      <c r="N110" s="3">
+        <v>12</v>
+      </c>
+      <c r="O110" s="3">
+        <v>13</v>
+      </c>
+      <c r="P110" s="3">
+        <v>14</v>
+      </c>
+      <c r="Q110" s="3">
+        <v>15</v>
+      </c>
+      <c r="R110" s="3">
+        <v>16</v>
+      </c>
+      <c r="S110" s="3">
+        <v>17</v>
+      </c>
+      <c r="T110" s="3">
+        <v>18</v>
+      </c>
+      <c r="U110" s="3">
+        <v>19</v>
+      </c>
+      <c r="V110" s="3">
+        <v>20</v>
+      </c>
+      <c r="W110" s="3">
+        <v>21</v>
+      </c>
+      <c r="X110" s="3">
+        <v>22</v>
+      </c>
+      <c r="Y110" s="3">
+        <v>23</v>
+      </c>
+      <c r="Z110" s="3">
+        <v>24</v>
+      </c>
+      <c r="AA110" s="3">
+        <v>25</v>
+      </c>
+      <c r="AB110" s="3">
+        <v>26</v>
+      </c>
+      <c r="AC110" s="3">
+        <v>27</v>
+      </c>
+      <c r="AD110" s="3">
+        <v>28</v>
+      </c>
+      <c r="AE110" s="3">
+        <v>29</v>
+      </c>
+      <c r="AF110" s="3">
+        <v>30</v>
+      </c>
+      <c r="AG110" s="3">
+        <v>31</v>
+      </c>
+      <c r="AH110" s="3">
+        <v>32</v>
+      </c>
+      <c r="AI110" s="3">
+        <v>33</v>
+      </c>
+      <c r="AJ110" s="3">
+        <v>34</v>
+      </c>
+      <c r="AK110" s="3">
+        <v>35</v>
+      </c>
+      <c r="AL110" s="3">
+        <v>36</v>
+      </c>
+      <c r="AM110" s="3">
+        <v>37</v>
+      </c>
+      <c r="AN110" s="3">
+        <v>38</v>
+      </c>
+      <c r="AO110" s="3">
+        <v>39</v>
+      </c>
+      <c r="AP110" s="3">
+        <v>40</v>
+      </c>
+      <c r="AQ110" s="3">
+        <v>41</v>
+      </c>
+      <c r="AR110" s="3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="112" spans="1:44">
+      <c r="A112" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="113" spans="1:59" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A113" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:59" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A114" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:59" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A115" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:59" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A116" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="BG116" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:59" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A117" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:59" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A118" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:59" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A119" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:59">
+      <c r="A120" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B120" s="3">
+        <v>0</v>
+      </c>
+      <c r="C120" s="3">
+        <v>1</v>
+      </c>
+      <c r="D120" s="3">
+        <v>2</v>
+      </c>
+      <c r="E120" s="3">
+        <v>3</v>
+      </c>
+      <c r="F120" s="3">
+        <v>4</v>
+      </c>
+      <c r="G120" s="3">
+        <v>5</v>
+      </c>
+      <c r="H120" s="3">
+        <v>6</v>
+      </c>
+      <c r="I120" s="3">
+        <v>7</v>
+      </c>
+      <c r="J120" s="3">
+        <v>8</v>
+      </c>
+      <c r="K120" s="3">
+        <v>9</v>
+      </c>
+      <c r="L120" s="3">
+        <v>10</v>
+      </c>
+      <c r="M120" s="3">
+        <v>11</v>
+      </c>
+      <c r="N120" s="3">
+        <v>12</v>
+      </c>
+      <c r="O120" s="3">
+        <v>13</v>
+      </c>
+      <c r="P120" s="3">
+        <v>14</v>
+      </c>
+      <c r="Q120" s="3">
+        <v>15</v>
+      </c>
+      <c r="R120" s="3">
+        <v>16</v>
+      </c>
+      <c r="S120" s="3">
+        <v>17</v>
+      </c>
+      <c r="T120" s="3">
+        <v>18</v>
+      </c>
+      <c r="U120" s="3">
+        <v>19</v>
+      </c>
+      <c r="V120" s="3">
+        <v>20</v>
+      </c>
+      <c r="W120" s="3">
+        <v>21</v>
+      </c>
+      <c r="X120" s="3">
+        <v>22</v>
+      </c>
+      <c r="Y120" s="3">
+        <v>23</v>
+      </c>
+      <c r="Z120" s="3">
+        <v>24</v>
+      </c>
+      <c r="AA120" s="3">
+        <v>25</v>
+      </c>
+      <c r="AB120" s="3">
+        <v>26</v>
+      </c>
+      <c r="AC120" s="3">
+        <v>27</v>
+      </c>
+      <c r="AD120" s="3">
+        <v>28</v>
+      </c>
+      <c r="AE120" s="3">
+        <v>29</v>
+      </c>
+      <c r="AF120" s="3">
+        <v>30</v>
+      </c>
+      <c r="AG120" s="3">
+        <v>31</v>
+      </c>
+      <c r="AH120" s="3">
+        <v>32</v>
+      </c>
+      <c r="AI120" s="3">
+        <v>33</v>
+      </c>
+      <c r="AJ120" s="3">
+        <v>34</v>
+      </c>
+      <c r="AK120" s="3">
+        <v>35</v>
+      </c>
+      <c r="AL120" s="3">
+        <v>36</v>
+      </c>
+      <c r="AM120" s="3">
+        <v>37</v>
+      </c>
+      <c r="AN120" s="3">
+        <v>38</v>
+      </c>
+      <c r="AO120" s="3">
+        <v>39</v>
+      </c>
+      <c r="AP120" s="3">
+        <v>40</v>
+      </c>
+      <c r="AQ120" s="3">
+        <v>41</v>
+      </c>
+      <c r="AR120" s="3">
+        <v>42</v>
+      </c>
+      <c r="AS120" s="3">
+        <v>43</v>
+      </c>
+      <c r="AT120" s="3">
+        <v>44</v>
+      </c>
+      <c r="AU120" s="3">
+        <v>45</v>
+      </c>
+      <c r="AV120" s="3">
+        <v>46</v>
+      </c>
+      <c r="AW120" s="3">
+        <v>47</v>
+      </c>
+      <c r="AX120" s="3">
+        <v>48</v>
+      </c>
+      <c r="AY120" s="3">
+        <v>49</v>
+      </c>
+      <c r="AZ120" s="3">
+        <v>50</v>
+      </c>
+      <c r="BA120" s="3">
+        <v>51</v>
+      </c>
+      <c r="BB120" s="3">
+        <v>52</v>
+      </c>
+      <c r="BC120" s="3">
+        <v>53</v>
+      </c>
+      <c r="BD120" s="3">
+        <v>54</v>
+      </c>
+      <c r="BE120" s="3">
+        <v>55</v>
+      </c>
+      <c r="BF120" s="3">
+        <v>56</v>
+      </c>
+      <c r="BG120" s="3">
+        <v>57</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B13:ZZ19">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="B103:ZZ109">
+    <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -1759,6 +5830,36 @@
         <color rgb="FFC5D9F1"/>
         <color rgb="FF8DB4E3"/>
         <color rgb="FF538ED5"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="22" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B113:ZZ119">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFC5D9F1"/>
+        <color rgb="FF8DB4E3"/>
+        <color rgb="FF538ED5"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="24" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13:ZZ19">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFD9C454"/>
+        <color rgb="FFC78554"/>
+        <color rgb="FFB55353"/>
       </colorScale>
     </cfRule>
     <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
@@ -1771,9 +5872,9 @@
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max" val="0"/>
-        <color rgb="FFC5D9F1"/>
-        <color rgb="FF8DB4E3"/>
-        <color rgb="FF538ED5"/>
+        <color rgb="FFD9C454"/>
+        <color rgb="FFC78554"/>
+        <color rgb="FFB55353"/>
       </colorScale>
     </cfRule>
     <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
@@ -1786,9 +5887,9 @@
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max" val="0"/>
-        <color rgb="FFC5D9F1"/>
-        <color rgb="FF8DB4E3"/>
-        <color rgb="FF538ED5"/>
+        <color rgb="FFD9C454"/>
+        <color rgb="FFC78554"/>
+        <color rgb="FFB55353"/>
       </colorScale>
     </cfRule>
     <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
@@ -1801,12 +5902,102 @@
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max" val="0"/>
-        <color rgb="FFC5D9F1"/>
-        <color rgb="FF8DB4E3"/>
-        <color rgb="FF538ED5"/>
+        <color rgb="FFC7F3CF"/>
+        <color rgb="FF00BB5E"/>
+        <color rgb="FF008844"/>
       </colorScale>
     </cfRule>
     <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B43:ZZ49">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF7BFF7"/>
+        <color rgb="FFF14CF1"/>
+        <color rgb="FFAA0BAA"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="10" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B53:ZZ59">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFC7F3CF"/>
+        <color rgb="FF00BB5E"/>
+        <color rgb="FF008844"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="12" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B63:ZZ69">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFD9C454"/>
+        <color rgb="FFC78554"/>
+        <color rgb="FFB55353"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="14" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B73:ZZ79">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFD9C454"/>
+        <color rgb="FFC78554"/>
+        <color rgb="FFB55353"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="16" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B83:ZZ89">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFD9C454"/>
+        <color rgb="FFC78554"/>
+        <color rgb="FFB55353"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="18" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B93:ZZ99">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF7BFF7"/>
+        <color rgb="FFF14CF1"/>
+        <color rgb="FFAA0BAA"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1823,17 +6014,584 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15">
+        <v>17</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16">
+        <v>18</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17">
+        <v>39</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18">
+        <v>27</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19">
+        <v>35</v>
+      </c>
+      <c r="C19">
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20">
+        <v>31</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22">
+        <v>40</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23">
+        <v>59</v>
+      </c>
+      <c r="C23">
+        <v>7</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24">
+        <v>21</v>
+      </c>
+      <c r="C24">
+        <v>6</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25">
+        <v>13</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>60</v>
+      </c>
+      <c r="D2">
+        <v>23</v>
+      </c>
+      <c r="E2">
+        <v>91</v>
+      </c>
+      <c r="F2">
+        <v>104</v>
+      </c>
+      <c r="G2">
+        <v>77</v>
+      </c>
+      <c r="H2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>16</v>
+      </c>
+      <c r="F5">
+        <v>12</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>